--- a/uploads/stats_useradd_rescodes.xlsx
+++ b/uploads/stats_useradd_rescodes.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44405.61286984792</v>
+        <v>44406.63916107046</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44405.6128701374</v>
+        <v>44406.63916155483</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44405.61287025948</v>
+        <v>44406.63916168181</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44405.61287042155</v>
+        <v>44406.63916184343</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44405.61287495607</v>
+        <v>44406.63916634873</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44405.61287507884</v>
+        <v>44406.63916647524</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44405.61287524542</v>
+        <v>44406.63916665993</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44405.61287540648</v>
+        <v>44406.63916683308</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44405.61287968902</v>
+        <v>44406.63917125824</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44405.61287981556</v>
+        <v>44406.63917136976</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -721,11 +721,11 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44405.61291690992</v>
+        <v>44406.63917564719</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Not all users have been created (created by 9 of 13 users)</t>
+          <t>Bad request! Users haven't been created.</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44405.61293897449</v>
+        <v>44406.63917983297</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>All users have been created (5 of 5 users)</t>
+          <t>Bad request! Users haven't been created.</t>
         </is>
       </c>
     </row>
@@ -769,11 +769,11 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44405.61294345556</v>
+        <v>44406.63921667013</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>All users have been created (1 of 1 users)</t>
+          <t>Not all users have been created (created by 9 of 13 users)</t>
         </is>
       </c>
     </row>
@@ -793,11 +793,11 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44405.61294754171</v>
+        <v>44406.63923767475</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>All users have been created (1 of 1 users)</t>
+          <t>All users have been created (5 of 5 users)</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44405.613151707</v>
+        <v>44406.63924227563</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bad request! Users haven't been created.</t>
+          <t>All users have been created (1 of 1 users)</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -841,299 +841,11 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44405.61315188065</v>
+        <v>44406.63924642903</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bad request! JSON file is empty or broken.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>400</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>44405.61315200775</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>400</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>44405.61315216876</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Bad request! JSON file is empty or broken.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>400</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>44405.61315230782</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>400</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>44405.61315245773</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>400</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>44405.61315261939</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>400</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>44405.6131527805</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>400</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>44405.61315296518</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>400</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>44405.61315315035</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>400</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>44405.61315359813</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>400</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>44405.61315428811</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>400</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>44405.61315462418</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>400</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>44405.6131548089</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Bad request! Users haven't been created.</t>
+          <t>All users have been created (1 of 1 users)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,12 +1042,17 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>login4</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not enough information, login missing!</t>
+          <t xml:space="preserve">Database DataError! (psycopg2.errors.NumericValueOutOfRange) ОШИБКА:  bigint вне диапазона
+</t>
         </is>
       </c>
     </row>
@@ -1347,19 +1064,20 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>konstantin1963</t>
+          <t>login5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Error! Login is already in the database.</t>
+          <t xml:space="preserve">Database DataError! (psycopg2.errors.StringDataRightTruncation) ОШИБКА:  значение не умещается в тип character varying(50)
+</t>
         </is>
       </c>
     </row>
@@ -1371,19 +1089,15 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>eva5725</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Error! E-mail is already in the database.</t>
+          <t>Not enough information, login missing!</t>
         </is>
       </c>
     </row>
@@ -1395,19 +1109,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>nina4100</t>
+          <t>konstantin1963</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Error! Phone is already in the database.</t>
+          <t>Error! Login is already in the database.</t>
         </is>
       </c>
     </row>
@@ -1419,15 +1133,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>eva5725</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Not enough information, login missing!</t>
+          <t>Error! E-mail is already in the database.</t>
         </is>
       </c>
     </row>
@@ -1439,635 +1157,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>vasiliy10071991</t>
+          <t>nina4100</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Error! Not enough information, login, name, email or phone are missing!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>molchanov</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Not enough information, login is empty!</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Not enough information, full name is missing!</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>login1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Error! Phone is not integer!</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>23</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>login2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>login3</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Error! Phone is not integer!</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>vitesempl</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>vasiliy2903</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>25</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Not enough information, login missing!</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>25</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>kochneva2020</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>25</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>konstantin1963</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>25</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>kirill1994</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>denis9985</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>konstantin1963</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>georgiy15011979</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>25</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>kseniya94</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>eva5725</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Error! E-mail is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>25</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>mariya49</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>25</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nina4100</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>Error! Phone is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>26</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>mihail.saharovskiy</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>26</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>vitaliy91</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>tamara.yasinova</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>26</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nikita.savrasov</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>26</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>polina84</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>27</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>kirill1983</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>28</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>nikolay1256</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Error! Login is already in the database.</t>
         </is>
       </c>
     </row>
